--- a/03_設計/04_DB/01_定義書/テーブル定義書.xlsx
+++ b/03_設計/04_DB/01_定義書/テーブル定義書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project Files\01. MELIP\02_SVN (Document)\03_設計\04_DB\01_定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n-suzuki\git\melip-doc\03_設計\04_DB\01_定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11430"/>
   </bookViews>
   <sheets>
     <sheet name="エンティティ一覧" sheetId="2" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2995" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3001" uniqueCount="248">
   <si>
     <t>エンティティ一覧</t>
   </si>
@@ -310,13 +310,13 @@
     <t>作成者</t>
   </si>
   <si>
-    <t>j-nakashima</t>
+    <t>n-suzuki</t>
   </si>
   <si>
     <t>作成日</t>
   </si>
   <si>
-    <t>2015/01/20</t>
+    <t>2015/01/22</t>
   </si>
   <si>
     <t>更新日</t>
@@ -2052,6 +2052,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2485,11 +2488,19 @@
     <hyperlink ref="C30" location="'コードビュー'!A1" display="'コードビュー'!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2976,11 +2987,19 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3470,11 +3489,19 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3941,11 +3968,19 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="85" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4432,11 +4467,19 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="85" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4926,11 +4969,19 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5417,11 +5468,19 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="85" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5890,11 +5949,19 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6361,11 +6428,19 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6852,11 +6927,19 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7346,11 +7429,19 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7454,11 +7545,19 @@
   </sheetData>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7945,12 +8044,20 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8244,10 +8351,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>114</v>
@@ -8262,149 +8369,172 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
         <v>8</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>9</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C22" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D22" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="E21" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="F21" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="G21" s="55" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="E22" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="57" t="s">
+    <row r="25" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="C24" s="58" t="s">
+      <c r="C25" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="D24" s="59"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="57" t="s">
+      <c r="D25" s="59"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="G24" s="61" t="s">
+      <c r="G25" s="61" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+    <row r="27" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="57" t="s">
+    <row r="28" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="58" t="s">
+      <c r="C28" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="60"/>
-      <c r="E27" s="63" t="s">
+      <c r="D28" s="60"/>
+      <c r="E28" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="F27" s="64"/>
-      <c r="G27" s="61" t="s">
+      <c r="F28" s="64"/>
+      <c r="G28" s="61" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+    <row r="30" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="22" t="s">
+    <row r="31" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="C30" s="70" t="s">
+      <c r="C31" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="D30" s="71"/>
-      <c r="E30" s="72" t="s">
+      <c r="D31" s="71"/>
+      <c r="E31" s="72" t="s">
         <v>129</v>
       </c>
-      <c r="F30" s="73"/>
-      <c r="G30" s="23" t="s">
+      <c r="F31" s="73"/>
+      <c r="G31" s="23" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="9">
-        <v>1</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" s="78" t="s">
+    <row r="32" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="9">
+        <v>1</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="78" t="s">
         <v>187</v>
       </c>
-      <c r="D31" s="79"/>
-      <c r="E31" s="78" t="s">
+      <c r="D32" s="79"/>
+      <c r="E32" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="F31" s="79"/>
-      <c r="G31" s="21" t="s">
+      <c r="F32" s="79"/>
+      <c r="G32" s="21" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="6">
+    <row r="33" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="6">
         <v>2</v>
       </c>
-      <c r="B32" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32" s="68" t="s">
+      <c r="B33" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="68" t="s">
         <v>187</v>
       </c>
-      <c r="D32" s="69"/>
-      <c r="E32" s="68" t="s">
+      <c r="D33" s="69"/>
+      <c r="E33" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="69"/>
-      <c r="G32" s="19" t="s">
+      <c r="F33" s="69"/>
+      <c r="G33" s="19" t="s">
         <v>187</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E31:F31"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="E32:F32"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
@@ -8418,11 +8548,19 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8937,11 +9075,19 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9431,11 +9577,19 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9902,11 +10056,19 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10393,11 +10555,19 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10887,11 +11057,19 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11378,11 +11556,19 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11918,11 +12104,19 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12479,11 +12673,19 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12952,11 +13154,19 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13780,11 +13990,19 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14299,11 +14517,19 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14774,11 +15000,19 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15268,11 +15502,19 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15739,11 +15981,19 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16230,11 +16480,19 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16724,5 +16982,10 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/03_設計/04_DB/01_定義書/テーブル定義書.xlsx
+++ b/03_設計/04_DB/01_定義書/テーブル定義書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n-suzuki\git\melip-doc\03_設計\04_DB\01_定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project Files\01. MELIP\02_SVN (Document)\03_設計\04_DB\01_定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11430"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11925"/>
   </bookViews>
   <sheets>
     <sheet name="エンティティ一覧" sheetId="2" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3317" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3323" uniqueCount="266">
   <si>
     <t>エンティティ一覧</t>
   </si>
@@ -337,13 +337,13 @@
     <t>作成者</t>
   </si>
   <si>
-    <t>n-suzuki</t>
+    <t>j-nakashima</t>
   </si>
   <si>
     <t>作成日</t>
   </si>
   <si>
-    <t>2015/01/27</t>
+    <t>2015/01/28</t>
   </si>
   <si>
     <t>更新日</t>
@@ -2109,9 +2109,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2587,19 +2584,11 @@
     <hyperlink ref="C33" location="'コードビュー'!A1" display="'コードビュー'!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3086,19 +3075,11 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3588,19 +3569,11 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4067,19 +4040,11 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="85" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4566,19 +4531,11 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="85" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5068,19 +5025,11 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5567,19 +5516,11 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="85" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6048,19 +5989,11 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6527,19 +6460,11 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7026,19 +6951,11 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7528,19 +7445,11 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7648,19 +7557,11 @@
   </sheetData>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8147,19 +8048,11 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8667,19 +8560,11 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9210,19 +9095,11 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9730,19 +9607,11 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10232,19 +10101,11 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10711,19 +10572,11 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11210,19 +11063,11 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11712,19 +11557,11 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12211,19 +12048,11 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12759,19 +12588,11 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13240,19 +13061,11 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13742,19 +13555,11 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14267,20 +14072,12 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14592,147 +14389,170 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
         <v>8</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="53" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>9</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C22" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D22" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="G21" s="55" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="E22" s="18"/>
+      <c r="F22" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="57" t="s">
+    <row r="25" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="C24" s="58" t="s">
+      <c r="C25" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="D24" s="59"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="57" t="s">
+      <c r="D25" s="59"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="G24" s="61" t="s">
+      <c r="G25" s="61" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+    <row r="27" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="22" t="s">
+    <row r="28" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="C27" s="70" t="s">
+      <c r="C28" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="D27" s="71"/>
-      <c r="E27" s="72" t="s">
+      <c r="D28" s="71"/>
+      <c r="E28" s="72" t="s">
         <v>134</v>
       </c>
-      <c r="F27" s="73"/>
-      <c r="G27" s="23" t="s">
+      <c r="F28" s="73"/>
+      <c r="G28" s="23" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="47">
-        <v>1</v>
-      </c>
-      <c r="B28" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="66" t="s">
+    <row r="29" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="47">
+        <v>1</v>
+      </c>
+      <c r="B29" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="66" t="s">
         <v>217</v>
       </c>
-      <c r="D28" s="67"/>
-      <c r="E28" s="66" t="s">
+      <c r="D29" s="67"/>
+      <c r="E29" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="67"/>
-      <c r="G28" s="49" t="s">
+      <c r="F29" s="67"/>
+      <c r="G29" s="49" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+    <row r="31" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="22" t="s">
+    <row r="32" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="C31" s="70" t="s">
+      <c r="C32" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="D31" s="71"/>
-      <c r="E31" s="72" t="s">
+      <c r="D32" s="71"/>
+      <c r="E32" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="F31" s="73"/>
-      <c r="G31" s="23" t="s">
+      <c r="F32" s="73"/>
+      <c r="G32" s="23" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="47">
-        <v>1</v>
-      </c>
-      <c r="B32" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" s="66" t="s">
+    <row r="33" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="47">
+        <v>1</v>
+      </c>
+      <c r="B33" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="66" t="s">
         <v>223</v>
       </c>
-      <c r="D32" s="67"/>
-      <c r="E32" s="66" t="s">
+      <c r="D33" s="67"/>
+      <c r="E33" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="F32" s="67"/>
-      <c r="G32" s="49" t="s">
+      <c r="F33" s="67"/>
+      <c r="G33" s="49" t="s">
         <v>223</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C28:D28"/>
     <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E32:F32"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
@@ -14746,19 +14566,11 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15617,19 +15429,11 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16144,19 +15948,11 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16627,19 +16423,11 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -17129,19 +16917,11 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -17608,19 +17388,11 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -18107,19 +17879,11 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -18609,10 +18373,5 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
--- a/03_設計/04_DB/01_定義書/テーブル定義書.xlsx
+++ b/03_設計/04_DB/01_定義書/テーブル定義書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11925"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="エンティティ一覧" sheetId="2" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3323" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3337" uniqueCount="264">
   <si>
     <t>エンティティ一覧</t>
   </si>
@@ -712,10 +712,10 @@
     <t>SCREEN_ID</t>
   </si>
   <si>
-    <t>対象エンティティ</t>
-  </si>
-  <si>
-    <t>TARGET_ENTITY</t>
+    <t>エンティティ</t>
+  </si>
+  <si>
+    <t>ENTITY</t>
   </si>
   <si>
     <t>スクリーンオブジェクトID</t>
@@ -734,12 +734,6 @@
   </si>
   <si>
     <t>SCREEN_OBJ_ATTR_ID</t>
-  </si>
-  <si>
-    <t>エンティティ</t>
-  </si>
-  <si>
-    <t>ENTITY</t>
   </si>
   <si>
     <t>属性グループID</t>
@@ -2584,6 +2578,7 @@
     <hyperlink ref="C33" location="'コードビュー'!A1" display="'コードビュー'!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9100,7 +9095,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9564,30 +9559,51 @@
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="47">
-        <v>1</v>
-      </c>
-      <c r="B34" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="66" t="s">
+    <row r="34" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="9">
+        <v>1</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="78" t="s">
         <v>199</v>
       </c>
-      <c r="D34" s="67"/>
-      <c r="E34" s="66" t="s">
+      <c r="D34" s="79"/>
+      <c r="E34" s="78" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="79"/>
+      <c r="G34" s="21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="6">
+        <v>2</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="68" t="s">
+        <v>199</v>
+      </c>
+      <c r="D35" s="69"/>
+      <c r="E35" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="F34" s="67"/>
-      <c r="G34" s="49" t="s">
+      <c r="F35" s="69"/>
+      <c r="G35" s="19" t="s">
         <v>199</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="21">
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="C26:E26"/>
@@ -13877,10 +13893,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>119</v>
@@ -13900,10 +13916,10 @@
         <v>9</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>112</v>
@@ -13944,10 +13960,10 @@
         <v>11</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>112</v>
@@ -14077,7 +14093,7 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14412,147 +14428,191 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
         <v>9</v>
       </c>
-      <c r="B22" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="D22" s="18" t="s">
+      <c r="B22" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="53" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>10</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="D23" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="G22" s="55" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="E23" s="18"/>
+      <c r="F23" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" s="55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="57" t="s">
+    <row r="26" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="58" t="s">
+      <c r="C26" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="D25" s="59"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="57" t="s">
+      <c r="D26" s="59"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="G25" s="61" t="s">
+      <c r="G26" s="61" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+    <row r="28" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="22" t="s">
+    <row r="29" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="70" t="s">
+      <c r="C29" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="D28" s="71"/>
-      <c r="E28" s="72" t="s">
+      <c r="D29" s="71"/>
+      <c r="E29" s="72" t="s">
         <v>134</v>
       </c>
-      <c r="F28" s="73"/>
-      <c r="G28" s="23" t="s">
+      <c r="F29" s="73"/>
+      <c r="G29" s="23" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="47">
-        <v>1</v>
-      </c>
-      <c r="B29" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="66" t="s">
+    <row r="30" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="9">
+        <v>1</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="78" t="s">
+        <v>199</v>
+      </c>
+      <c r="D30" s="79"/>
+      <c r="E30" s="78" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="79"/>
+      <c r="G30" s="21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
+        <v>2</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="68" t="s">
         <v>217</v>
       </c>
-      <c r="D29" s="67"/>
-      <c r="E29" s="66" t="s">
+      <c r="D31" s="69"/>
+      <c r="E31" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="F29" s="67"/>
-      <c r="G29" s="49" t="s">
+      <c r="F31" s="69"/>
+      <c r="G31" s="19" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+    <row r="33" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="22" t="s">
+    <row r="34" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="C32" s="70" t="s">
+      <c r="C34" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="D32" s="71"/>
-      <c r="E32" s="72" t="s">
+      <c r="D34" s="71"/>
+      <c r="E34" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="F32" s="73"/>
-      <c r="G32" s="23" t="s">
+      <c r="F34" s="73"/>
+      <c r="G34" s="23" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="47">
-        <v>1</v>
-      </c>
-      <c r="B33" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="66" t="s">
+    <row r="35" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="47">
+        <v>1</v>
+      </c>
+      <c r="B35" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="66" t="s">
         <v>223</v>
       </c>
-      <c r="D33" s="67"/>
-      <c r="E33" s="66" t="s">
+      <c r="D35" s="67"/>
+      <c r="E35" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="F33" s="67"/>
-      <c r="G33" s="49" t="s">
+      <c r="F35" s="67"/>
+      <c r="G35" s="49" t="s">
         <v>223</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
+  <mergeCells count="20">
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C29:D29"/>
     <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
@@ -14750,10 +14810,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>91</v>
@@ -14771,10 +14831,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>91</v>
@@ -14792,10 +14852,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>91</v>
@@ -14855,10 +14915,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>91</v>
@@ -14876,10 +14936,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>91</v>
@@ -14939,10 +14999,10 @@
         <v>11</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>91</v>
@@ -14957,7 +15017,7 @@
     </row>
     <row r="26" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -14965,7 +15025,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="85" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C27" s="86"/>
       <c r="D27" s="86"/>
@@ -14978,7 +15038,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="88" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C28" s="62"/>
       <c r="D28" s="62"/>
@@ -14991,7 +15051,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="75" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -15004,7 +15064,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="75" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -15017,7 +15077,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="75" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -15030,7 +15090,7 @@
         <v>5</v>
       </c>
       <c r="B32" s="75" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -15043,7 +15103,7 @@
         <v>6</v>
       </c>
       <c r="B33" s="75" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C33" s="25"/>
       <c r="D33" s="25"/>
@@ -15056,7 +15116,7 @@
         <v>7</v>
       </c>
       <c r="B34" s="75" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -15069,7 +15129,7 @@
         <v>8</v>
       </c>
       <c r="B35" s="75" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -15082,7 +15142,7 @@
         <v>9</v>
       </c>
       <c r="B36" s="75" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -15095,7 +15155,7 @@
         <v>10</v>
       </c>
       <c r="B37" s="75" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -15108,7 +15168,7 @@
         <v>11</v>
       </c>
       <c r="B38" s="75" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -15121,7 +15181,7 @@
         <v>12</v>
       </c>
       <c r="B39" s="75" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -15134,7 +15194,7 @@
         <v>13</v>
       </c>
       <c r="B40" s="75" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -15147,7 +15207,7 @@
         <v>14</v>
       </c>
       <c r="B41" s="75" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -15160,7 +15220,7 @@
         <v>15</v>
       </c>
       <c r="B42" s="75" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -15173,7 +15233,7 @@
         <v>16</v>
       </c>
       <c r="B43" s="75" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -15186,7 +15246,7 @@
         <v>17</v>
       </c>
       <c r="B44" s="75" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -15199,7 +15259,7 @@
         <v>18</v>
       </c>
       <c r="B45" s="75" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -15212,7 +15272,7 @@
         <v>19</v>
       </c>
       <c r="B46" s="75" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -15225,7 +15285,7 @@
         <v>20</v>
       </c>
       <c r="B47" s="75" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -15238,7 +15298,7 @@
         <v>21</v>
       </c>
       <c r="B48" s="75" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -15251,7 +15311,7 @@
         <v>22</v>
       </c>
       <c r="B49" s="75" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -15264,7 +15324,7 @@
         <v>23</v>
       </c>
       <c r="B50" s="75" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -15277,7 +15337,7 @@
         <v>24</v>
       </c>
       <c r="B51" s="75" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -15290,7 +15350,7 @@
         <v>25</v>
       </c>
       <c r="B52" s="75" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -15303,7 +15363,7 @@
         <v>26</v>
       </c>
       <c r="B53" s="66" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C53" s="65"/>
       <c r="D53" s="65"/>

--- a/03_設計/04_DB/01_定義書/テーブル定義書.xlsx
+++ b/03_設計/04_DB/01_定義書/テーブル定義書.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2558" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2570" uniqueCount="231">
   <si>
     <t>エンティティ一覧</t>
   </si>
@@ -294,7 +294,7 @@
     <t>作成日</t>
   </si>
   <si>
-    <t>2015/02/10</t>
+    <t>2015/02/12</t>
   </si>
   <si>
     <t>更新日</t>
@@ -472,6 +472,21 @@
   </si>
   <si>
     <t>PUBLISH_STS</t>
+  </si>
+  <si>
+    <t>緯度</t>
+  </si>
+  <si>
+    <t>LATITUDE</t>
+  </si>
+  <si>
+    <t>DOUBLE(9,6)</t>
+  </si>
+  <si>
+    <t>経度</t>
+  </si>
+  <si>
+    <t>LONGITUDE</t>
   </si>
   <si>
     <t>親施設ID</t>
@@ -2531,10 +2546,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>90</v>
@@ -2669,10 +2684,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>98</v>
@@ -2715,10 +2730,10 @@
         <v>9</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>110</v>
@@ -2763,7 +2778,7 @@
       </c>
       <c r="B26" s="48"/>
       <c r="C26" s="81" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D26" s="82"/>
       <c r="E26" s="83"/>
@@ -2804,7 +2819,7 @@
         <v>77</v>
       </c>
       <c r="C30" s="66" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D30" s="67"/>
       <c r="E30" s="66" t="s">
@@ -2812,7 +2827,7 @@
       </c>
       <c r="F30" s="67"/>
       <c r="G30" s="49" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
@@ -3030,10 +3045,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>90</v>
@@ -3191,10 +3206,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>98</v>
@@ -3265,7 +3280,7 @@
         <v>77</v>
       </c>
       <c r="C28" s="78" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D28" s="79"/>
       <c r="E28" s="78" t="s">
@@ -3273,7 +3288,7 @@
       </c>
       <c r="F28" s="79"/>
       <c r="G28" s="21" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -3327,7 +3342,7 @@
         <v>77</v>
       </c>
       <c r="C33" s="66" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D33" s="67"/>
       <c r="E33" s="66" t="s">
@@ -3335,7 +3350,7 @@
       </c>
       <c r="F33" s="67"/>
       <c r="G33" s="49" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3532,10 +3547,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>90</v>
@@ -3670,10 +3685,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>105</v>
@@ -3789,7 +3804,7 @@
         <v>77</v>
       </c>
       <c r="C31" s="78" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D31" s="79"/>
       <c r="E31" s="78" t="s">
@@ -3797,7 +3812,7 @@
       </c>
       <c r="F31" s="79"/>
       <c r="G31" s="21" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -3808,7 +3823,7 @@
         <v>77</v>
       </c>
       <c r="C32" s="68" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D32" s="69"/>
       <c r="E32" s="68" t="s">
@@ -3816,7 +3831,7 @@
       </c>
       <c r="F32" s="69"/>
       <c r="G32" s="19" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -4011,10 +4026,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>90</v>
@@ -4149,10 +4164,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>98</v>
@@ -4243,7 +4258,7 @@
       </c>
       <c r="B26" s="48"/>
       <c r="C26" s="81" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D26" s="82"/>
       <c r="E26" s="83"/>
@@ -4284,7 +4299,7 @@
         <v>77</v>
       </c>
       <c r="C30" s="66" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D30" s="67"/>
       <c r="E30" s="66" t="s">
@@ -4292,7 +4307,7 @@
       </c>
       <c r="F30" s="67"/>
       <c r="G30" s="49" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
@@ -4510,10 +4525,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>90</v>
@@ -4648,10 +4663,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>98</v>
@@ -4671,10 +4686,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>98</v>
@@ -4745,7 +4760,7 @@
         <v>77</v>
       </c>
       <c r="C28" s="78" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D28" s="79"/>
       <c r="E28" s="78" t="s">
@@ -4753,7 +4768,7 @@
       </c>
       <c r="F28" s="79"/>
       <c r="G28" s="21" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -4764,7 +4779,7 @@
         <v>77</v>
       </c>
       <c r="C29" s="68" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D29" s="69"/>
       <c r="E29" s="68" t="s">
@@ -4772,7 +4787,7 @@
       </c>
       <c r="F29" s="69"/>
       <c r="G29" s="19" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
@@ -4807,7 +4822,7 @@
         <v>77</v>
       </c>
       <c r="C33" s="66" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D33" s="67"/>
       <c r="E33" s="66" t="s">
@@ -4815,7 +4830,7 @@
       </c>
       <c r="F33" s="67"/>
       <c r="G33" s="49" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -5012,10 +5027,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>90</v>
@@ -5150,10 +5165,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>98</v>
@@ -5196,10 +5211,10 @@
         <v>9</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>110</v>
@@ -5244,7 +5259,7 @@
       </c>
       <c r="B26" s="48"/>
       <c r="C26" s="81" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D26" s="82"/>
       <c r="E26" s="83"/>
@@ -5285,7 +5300,7 @@
         <v>77</v>
       </c>
       <c r="C30" s="66" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D30" s="67"/>
       <c r="E30" s="66" t="s">
@@ -5293,7 +5308,7 @@
       </c>
       <c r="F30" s="67"/>
       <c r="G30" s="49" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
@@ -5511,10 +5526,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>90</v>
@@ -5652,7 +5667,7 @@
         <v>137</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>98</v>
@@ -5770,7 +5785,7 @@
         <v>77</v>
       </c>
       <c r="C31" s="78" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D31" s="79"/>
       <c r="E31" s="78" t="s">
@@ -5778,7 +5793,7 @@
       </c>
       <c r="F31" s="79"/>
       <c r="G31" s="21" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -5789,7 +5804,7 @@
         <v>77</v>
       </c>
       <c r="C32" s="68" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D32" s="69"/>
       <c r="E32" s="68" t="s">
@@ -5797,7 +5812,7 @@
       </c>
       <c r="F32" s="69"/>
       <c r="G32" s="19" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -5992,10 +6007,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>90</v>
@@ -6130,10 +6145,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>105</v>
@@ -6249,7 +6264,7 @@
         <v>77</v>
       </c>
       <c r="C31" s="78" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D31" s="79"/>
       <c r="E31" s="78" t="s">
@@ -6257,7 +6272,7 @@
       </c>
       <c r="F31" s="79"/>
       <c r="G31" s="21" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -6268,7 +6283,7 @@
         <v>77</v>
       </c>
       <c r="C32" s="68" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D32" s="69"/>
       <c r="E32" s="68" t="s">
@@ -6276,7 +6291,7 @@
       </c>
       <c r="F32" s="69"/>
       <c r="G32" s="19" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6471,10 +6486,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>90</v>
@@ -6609,10 +6624,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>98</v>
@@ -6703,7 +6718,7 @@
       </c>
       <c r="B26" s="48"/>
       <c r="C26" s="81" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D26" s="82"/>
       <c r="E26" s="83"/>
@@ -6744,7 +6759,7 @@
         <v>77</v>
       </c>
       <c r="C30" s="66" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D30" s="67"/>
       <c r="E30" s="66" t="s">
@@ -6752,7 +6767,7 @@
       </c>
       <c r="F30" s="67"/>
       <c r="G30" s="49" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
@@ -6970,10 +6985,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>90</v>
@@ -7108,10 +7123,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>98</v>
@@ -7131,10 +7146,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>98</v>
@@ -7205,7 +7220,7 @@
         <v>77</v>
       </c>
       <c r="C28" s="78" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D28" s="79"/>
       <c r="E28" s="78" t="s">
@@ -7213,7 +7228,7 @@
       </c>
       <c r="F28" s="79"/>
       <c r="G28" s="21" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -7224,7 +7239,7 @@
         <v>77</v>
       </c>
       <c r="C29" s="68" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D29" s="69"/>
       <c r="E29" s="68" t="s">
@@ -7232,7 +7247,7 @@
       </c>
       <c r="F29" s="69"/>
       <c r="G29" s="19" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
@@ -7267,7 +7282,7 @@
         <v>77</v>
       </c>
       <c r="C33" s="66" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D33" s="67"/>
       <c r="E33" s="66" t="s">
@@ -7275,7 +7290,7 @@
       </c>
       <c r="F33" s="67"/>
       <c r="G33" s="49" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -7592,10 +7607,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>90</v>
@@ -7730,10 +7745,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>98</v>
@@ -7776,10 +7791,10 @@
         <v>9</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>110</v>
@@ -7824,7 +7839,7 @@
       </c>
       <c r="B26" s="48"/>
       <c r="C26" s="81" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D26" s="82"/>
       <c r="E26" s="83"/>
@@ -7865,7 +7880,7 @@
         <v>77</v>
       </c>
       <c r="C30" s="66" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D30" s="67"/>
       <c r="E30" s="66" t="s">
@@ -7873,7 +7888,7 @@
       </c>
       <c r="F30" s="67"/>
       <c r="G30" s="49" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
@@ -8549,10 +8564,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>90</v>
@@ -8687,10 +8702,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>105</v>
@@ -8806,7 +8821,7 @@
         <v>77</v>
       </c>
       <c r="C31" s="78" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D31" s="79"/>
       <c r="E31" s="78" t="s">
@@ -8814,7 +8829,7 @@
       </c>
       <c r="F31" s="79"/>
       <c r="G31" s="21" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -8825,7 +8840,7 @@
         <v>77</v>
       </c>
       <c r="C32" s="68" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D32" s="69"/>
       <c r="E32" s="68" t="s">
@@ -8833,7 +8848,7 @@
       </c>
       <c r="F32" s="69"/>
       <c r="G32" s="19" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -9028,10 +9043,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>90</v>
@@ -9166,10 +9181,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>98</v>
@@ -9260,7 +9275,7 @@
       </c>
       <c r="B26" s="48"/>
       <c r="C26" s="81" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D26" s="82"/>
       <c r="E26" s="83"/>
@@ -9301,7 +9316,7 @@
         <v>77</v>
       </c>
       <c r="C30" s="66" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D30" s="67"/>
       <c r="E30" s="66" t="s">
@@ -9309,7 +9324,7 @@
       </c>
       <c r="F30" s="67"/>
       <c r="G30" s="49" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
@@ -9527,10 +9542,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>90</v>
@@ -9688,10 +9703,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>98</v>
@@ -9781,7 +9796,7 @@
         <v>77</v>
       </c>
       <c r="C29" s="68" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D29" s="69"/>
       <c r="E29" s="68" t="s">
@@ -9789,7 +9804,7 @@
       </c>
       <c r="F29" s="69"/>
       <c r="G29" s="19" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
@@ -9824,7 +9839,7 @@
         <v>77</v>
       </c>
       <c r="C33" s="66" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D33" s="67"/>
       <c r="E33" s="66" t="s">
@@ -9832,7 +9847,7 @@
       </c>
       <c r="F33" s="67"/>
       <c r="G33" s="49" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -10029,10 +10044,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>90</v>
@@ -10167,10 +10182,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>98</v>
@@ -10213,10 +10228,10 @@
         <v>9</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>110</v>
@@ -10261,7 +10276,7 @@
       </c>
       <c r="B26" s="48"/>
       <c r="C26" s="81" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D26" s="82"/>
       <c r="E26" s="83"/>
@@ -10302,7 +10317,7 @@
         <v>77</v>
       </c>
       <c r="C30" s="66" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D30" s="67"/>
       <c r="E30" s="66" t="s">
@@ -10310,7 +10325,7 @@
       </c>
       <c r="F30" s="67"/>
       <c r="G30" s="49" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
@@ -10551,10 +10566,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>77</v>
@@ -10572,10 +10587,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>77</v>
@@ -10593,10 +10608,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>77</v>
@@ -10656,10 +10671,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>77</v>
@@ -10677,10 +10692,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>77</v>
@@ -10740,10 +10755,10 @@
         <v>11</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>77</v>
@@ -10758,7 +10773,7 @@
     </row>
     <row r="26" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -10766,7 +10781,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="85" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C27" s="86"/>
       <c r="D27" s="86"/>
@@ -10779,7 +10794,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="88" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C28" s="62"/>
       <c r="D28" s="62"/>
@@ -10792,7 +10807,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="75" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -10805,7 +10820,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="75" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -10818,7 +10833,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="75" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -10831,7 +10846,7 @@
         <v>5</v>
       </c>
       <c r="B32" s="75" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -10844,7 +10859,7 @@
         <v>6</v>
       </c>
       <c r="B33" s="75" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C33" s="25"/>
       <c r="D33" s="25"/>
@@ -10857,7 +10872,7 @@
         <v>7</v>
       </c>
       <c r="B34" s="75" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -10870,7 +10885,7 @@
         <v>8</v>
       </c>
       <c r="B35" s="75" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -10883,7 +10898,7 @@
         <v>9</v>
       </c>
       <c r="B36" s="75" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -10896,7 +10911,7 @@
         <v>10</v>
       </c>
       <c r="B37" s="75" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -10909,7 +10924,7 @@
         <v>11</v>
       </c>
       <c r="B38" s="75" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -10922,7 +10937,7 @@
         <v>12</v>
       </c>
       <c r="B39" s="75" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -10935,7 +10950,7 @@
         <v>13</v>
       </c>
       <c r="B40" s="75" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -10948,7 +10963,7 @@
         <v>14</v>
       </c>
       <c r="B41" s="75" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -10961,7 +10976,7 @@
         <v>15</v>
       </c>
       <c r="B42" s="75" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -10974,7 +10989,7 @@
         <v>16</v>
       </c>
       <c r="B43" s="75" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -10987,7 +11002,7 @@
         <v>17</v>
       </c>
       <c r="B44" s="75" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -11000,7 +11015,7 @@
         <v>18</v>
       </c>
       <c r="B45" s="75" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -11013,7 +11028,7 @@
         <v>19</v>
       </c>
       <c r="B46" s="75" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -11026,7 +11041,7 @@
         <v>20</v>
       </c>
       <c r="B47" s="75" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -11039,7 +11054,7 @@
         <v>21</v>
       </c>
       <c r="B48" s="75" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -11052,7 +11067,7 @@
         <v>22</v>
       </c>
       <c r="B49" s="75" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -11065,7 +11080,7 @@
         <v>23</v>
       </c>
       <c r="B50" s="75" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -11078,7 +11093,7 @@
         <v>24</v>
       </c>
       <c r="B51" s="75" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -11091,7 +11106,7 @@
         <v>25</v>
       </c>
       <c r="B52" s="75" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -11104,7 +11119,7 @@
         <v>26</v>
       </c>
       <c r="B53" s="66" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C53" s="65"/>
       <c r="D53" s="65"/>
@@ -12734,7 +12749,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13069,210 +13084,256 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
         <v>9</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>10</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>11</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D24" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="G22" s="55" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="E24" s="18"/>
+      <c r="F24" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="55" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="57" t="s">
+    <row r="27" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="58" t="s">
+      <c r="C27" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="D25" s="59"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="57" t="s">
+      <c r="D27" s="59"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="G25" s="61" t="s">
+      <c r="G27" s="61" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+    <row r="29" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="22" t="s">
+    <row r="30" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="70" t="s">
+      <c r="C30" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="D28" s="71"/>
-      <c r="E28" s="72" t="s">
+      <c r="D30" s="71"/>
+      <c r="E30" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="F28" s="73"/>
-      <c r="G28" s="23" t="s">
+      <c r="F30" s="73"/>
+      <c r="G30" s="23" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="9">
-        <v>1</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="78" t="s">
-        <v>142</v>
-      </c>
-      <c r="D29" s="79"/>
-      <c r="E29" s="78" t="s">
+    <row r="31" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="9">
+        <v>1</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="78" t="s">
+        <v>147</v>
+      </c>
+      <c r="D31" s="79"/>
+      <c r="E31" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="79"/>
-      <c r="G29" s="21" t="s">
+      <c r="F31" s="79"/>
+      <c r="G31" s="21" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="6">
+    <row r="32" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="6">
         <v>2</v>
       </c>
-      <c r="B30" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="68" t="s">
+      <c r="B32" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="D30" s="69"/>
-      <c r="E30" s="68" t="s">
+      <c r="D32" s="69"/>
+      <c r="E32" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="F30" s="69"/>
-      <c r="G30" s="19" t="s">
+      <c r="F32" s="69"/>
+      <c r="G32" s="19" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+    <row r="34" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="22" t="s">
+    <row r="35" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A35" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="C33" s="70" t="s">
+      <c r="C35" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="D33" s="71"/>
-      <c r="E33" s="72" t="s">
+      <c r="D35" s="71"/>
+      <c r="E35" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="F33" s="73"/>
-      <c r="G33" s="23" t="s">
+      <c r="F35" s="73"/>
+      <c r="G35" s="23" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="9">
-        <v>1</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="78" t="s">
+    <row r="36" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A36" s="9">
+        <v>1</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="78" t="s">
         <v>136</v>
       </c>
-      <c r="D34" s="79"/>
-      <c r="E34" s="78" t="s">
+      <c r="D36" s="79"/>
+      <c r="E36" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="79"/>
-      <c r="G34" s="21" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="3">
+      <c r="F36" s="79"/>
+      <c r="G36" s="21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="3">
         <v>2</v>
       </c>
-      <c r="B35" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="76" t="s">
+      <c r="B37" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="76" t="s">
         <v>136</v>
       </c>
-      <c r="D35" s="77"/>
-      <c r="E35" s="76" t="s">
+      <c r="D37" s="77"/>
+      <c r="E37" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="77"/>
-      <c r="G35" s="17" t="s">
+      <c r="F37" s="77"/>
+      <c r="G37" s="17" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="6">
+    <row r="38" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="6">
         <v>3</v>
       </c>
-      <c r="B36" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="68" t="s">
+      <c r="B38" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="D36" s="69"/>
-      <c r="E36" s="68" t="s">
+      <c r="D38" s="69"/>
+      <c r="E38" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="F36" s="69"/>
-      <c r="G36" s="19" t="s">
+      <c r="F38" s="69"/>
+      <c r="G38" s="19" t="s">
         <v>136</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C35:D35"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
@@ -13455,10 +13516,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>90</v>
@@ -13616,10 +13677,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>105</v>
@@ -13735,7 +13796,7 @@
         <v>77</v>
       </c>
       <c r="C32" s="78" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D32" s="79"/>
       <c r="E32" s="78" t="s">
@@ -13743,7 +13804,7 @@
       </c>
       <c r="F32" s="79"/>
       <c r="G32" s="21" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -13754,7 +13815,7 @@
         <v>77</v>
       </c>
       <c r="C33" s="68" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D33" s="69"/>
       <c r="E33" s="68" t="s">
@@ -13762,7 +13823,7 @@
       </c>
       <c r="F33" s="69"/>
       <c r="G33" s="19" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -13957,10 +14018,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>90</v>
@@ -14095,10 +14156,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>98</v>
@@ -14189,7 +14250,7 @@
       </c>
       <c r="B26" s="48"/>
       <c r="C26" s="81" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D26" s="82"/>
       <c r="E26" s="83"/>
@@ -14230,7 +14291,7 @@
         <v>77</v>
       </c>
       <c r="C30" s="66" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D30" s="67"/>
       <c r="E30" s="66" t="s">
@@ -14238,7 +14299,7 @@
       </c>
       <c r="F30" s="67"/>
       <c r="G30" s="49" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
@@ -14456,10 +14517,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>90</v>
@@ -14617,10 +14678,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>98</v>
@@ -14710,7 +14771,7 @@
         <v>77</v>
       </c>
       <c r="C29" s="68" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D29" s="69"/>
       <c r="E29" s="68" t="s">
@@ -14718,7 +14779,7 @@
       </c>
       <c r="F29" s="69"/>
       <c r="G29" s="19" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
@@ -14753,7 +14814,7 @@
         <v>77</v>
       </c>
       <c r="C33" s="66" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D33" s="67"/>
       <c r="E33" s="66" t="s">
@@ -14761,7 +14822,7 @@
       </c>
       <c r="F33" s="67"/>
       <c r="G33" s="49" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/03_設計/04_DB/01_定義書/テーブル定義書.xlsx
+++ b/03_設計/04_DB/01_定義書/テーブル定義書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17535" windowHeight="5445"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17535" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="エンティティ一覧" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2526" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2528" uniqueCount="233">
   <si>
     <t>エンティティ一覧</t>
   </si>
@@ -300,7 +300,7 @@
     <t>作成日</t>
   </si>
   <si>
-    <t>2015/03/04</t>
+    <t>2015/03/10</t>
   </si>
   <si>
     <t>更新日</t>
@@ -13297,7 +13297,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13654,121 +13654,137 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="57" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="58" t="s">
+      <c r="C25" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="D25" s="59"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="57" t="s">
+      <c r="D25" s="80"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="G25" s="61" t="s">
+      <c r="G25" s="23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+    <row r="26" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="47">
+        <v>1</v>
+      </c>
+      <c r="B26" s="48"/>
+      <c r="C26" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="82"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" s="49"/>
+    </row>
+    <row r="28" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="57" t="s">
+    <row r="29" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="C28" s="58" t="s">
+      <c r="C29" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="D28" s="60"/>
-      <c r="E28" s="63" t="s">
+      <c r="D29" s="60"/>
+      <c r="E29" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="F28" s="64"/>
-      <c r="G28" s="61" t="s">
+      <c r="F29" s="64"/>
+      <c r="G29" s="61" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+    <row r="31" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="22" t="s">
+    <row r="32" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="C31" s="70" t="s">
+      <c r="C32" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="D31" s="71"/>
-      <c r="E31" s="72" t="s">
+      <c r="D32" s="71"/>
+      <c r="E32" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="F31" s="73"/>
-      <c r="G31" s="23" t="s">
+      <c r="F32" s="73"/>
+      <c r="G32" s="23" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="9">
-        <v>1</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="78" t="s">
+    <row r="33" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="9">
+        <v>1</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="78" t="s">
         <v>151</v>
       </c>
-      <c r="D32" s="79"/>
-      <c r="E32" s="78" t="s">
+      <c r="D33" s="79"/>
+      <c r="E33" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="F32" s="79"/>
-      <c r="G32" s="21" t="s">
+      <c r="F33" s="79"/>
+      <c r="G33" s="21" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="6">
+    <row r="34" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="6">
         <v>2</v>
       </c>
-      <c r="B33" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="68" t="s">
+      <c r="B34" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="68" t="s">
         <v>151</v>
       </c>
-      <c r="D33" s="69"/>
-      <c r="E33" s="68" t="s">
+      <c r="D34" s="69"/>
+      <c r="E34" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="69"/>
-      <c r="G33" s="19" t="s">
+      <c r="F34" s="69"/>
+      <c r="G34" s="19" t="s">
         <v>151</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E32:F32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="E33:F33"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
